--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/15/seed2/result_data_RandomForest.xlsx
@@ -474,12 +474,12 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.4529</v>
+        <v>16.4844</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.9851</v>
+        <v>-21.9634</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.7981</v>
+        <v>-21.77429999999999</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.44749999999998</v>
+        <v>-20.25909999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.75899999999997</v>
+        <v>-20.68189999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.85289999999999</v>
+        <v>-21.84729999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -865,12 +865,12 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>16.9839</v>
+        <v>17.1672</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.04409999999997</v>
+        <v>-21.05529999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.75879999999998</v>
+        <v>16.75889999999999</v>
       </c>
     </row>
     <row r="28">
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.04579999999997</v>
+        <v>-21.11749999999999</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.48539999999999</v>
+        <v>16.52259999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>15.9598</v>
+        <v>16.01439999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.5132</v>
+        <v>17.5208</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.4067</v>
+        <v>17.3507</v>
       </c>
     </row>
     <row r="52">
@@ -1324,12 +1324,12 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.0768</v>
+        <v>17.26740000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.9452</v>
+        <v>-21.8801</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.5678</v>
+        <v>16.6873</v>
       </c>
     </row>
     <row r="56">
@@ -1392,12 +1392,12 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.53270000000001</v>
+        <v>16.5006</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.66420000000002</v>
+        <v>-22.67930000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.62700000000001</v>
+        <v>16.7029</v>
       </c>
     </row>
     <row r="58">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.1378</v>
+        <v>-22.22939999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.67169999999999</v>
+        <v>-21.61039999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.22890000000001</v>
+        <v>17.30280000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.60370000000001</v>
+        <v>-20.76120000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.93299999999999</v>
+        <v>-21.84069999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.25440000000002</v>
+        <v>17.28170000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1970,12 +1970,12 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.56109999999999</v>
+        <v>16.50629999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.45350000000002</v>
+        <v>-21.49640000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2004,12 +2004,12 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.80790000000002</v>
+        <v>18.91290000000002</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.16979999999999</v>
+        <v>-21.22609999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
